--- a/data/trans_camb/POLIPATOLOGIA_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Edad-trans_camb.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>0,0; 0,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,21</t>
+          <t>0,52; 5,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,44</t>
+          <t>0,27; 2,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,45</t>
+          <t>-0,28; 0,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,0</t>
+          <t>-0,91; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,93</t>
+          <t>-0,14; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,94</t>
+          <t>-2,03; 0,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,64</t>
+          <t>-2,12; 0,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,78</t>
+          <t>-1,18; 2,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,51</t>
+          <t>-0,96; 0,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,28</t>
+          <t>-1,14; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,71</t>
+          <t>-0,23; 1,85</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,11; 125,86</t>
+          <t>-79,31; 147,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,83; 107,69</t>
+          <t>-82,81; 86,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 244,23</t>
+          <t>-47,67; 241,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 113,35</t>
+          <t>-79,13; 106,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,48; 67,63</t>
+          <t>-85,2; 67,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 314,73</t>
+          <t>-28,19; 332,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,42</t>
+          <t>-1,33; 0,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,37</t>
+          <t>-1,43; 0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,68</t>
+          <t>0,94; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,87</t>
+          <t>-0,54; 2,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,76</t>
+          <t>-1,23; 1,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,2</t>
+          <t>0,49; 4,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,33</t>
+          <t>-0,55; 1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,78</t>
+          <t>-0,91; 0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,65</t>
+          <t>1,26; 3,89</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-94,61; 311,17</t>
+          <t>-100,0; 241,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,26; 1299,17</t>
+          <t>48,13; 1299,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 218,81</t>
+          <t>-22,53; 227,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 122,59</t>
+          <t>-44,74; 149,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,08; 343,54</t>
+          <t>14,78; 323,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 127,24</t>
+          <t>-32,02; 141,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 74,12</t>
+          <t>-49,48; 80,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56,75; 382,63</t>
+          <t>62,91; 373,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,63</t>
+          <t>-2,16; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,03</t>
+          <t>-1,57; 2,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,39</t>
+          <t>-0,85; 5,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,35</t>
+          <t>-1,75; 4,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,66</t>
+          <t>-1,04; 4,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,21</t>
+          <t>4,79; 11,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,47</t>
+          <t>-1,04; 2,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,87</t>
+          <t>-0,64; 2,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,5</t>
+          <t>1,12; 7,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 147,57</t>
+          <t>-67,86; 145,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 179,63</t>
+          <t>-53,73; 213,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 361,9</t>
+          <t>-17,01; 384,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 117,27</t>
+          <t>-26,43; 111,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 126,42</t>
+          <t>-16,32; 129,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,93; 293,35</t>
+          <t>65,04; 295,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 90,38</t>
+          <t>-24,41; 90,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 102,63</t>
+          <t>-14,09; 109,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,92; 258,07</t>
+          <t>39,75; 263,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,0</t>
+          <t>-4,81; 1,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,02</t>
+          <t>-4,31; 2,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,43</t>
+          <t>1,69; 8,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,08</t>
+          <t>0,41; 9,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,26</t>
+          <t>0,65; 10,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,77</t>
+          <t>4,46; 12,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,02</t>
+          <t>-1,43; 4,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 5,12</t>
+          <t>-0,38; 5,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,4</t>
+          <t>4,18; 9,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 23,46</t>
+          <t>-63,25; 32,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 48,7</t>
+          <t>-52,98; 59,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,94; 180,22</t>
+          <t>17,48; 193,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,07; 118,36</t>
+          <t>2,95; 116,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 130,83</t>
+          <t>3,31; 121,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>36,85; 159,5</t>
+          <t>32,82; 155,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 77,29</t>
+          <t>-16,31; 64,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 76,81</t>
+          <t>-5,24; 75,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,7; 131,4</t>
+          <t>41,63; 138,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 7,63</t>
+          <t>-3,76; 7,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,71</t>
+          <t>-8,86; 0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 7,29</t>
+          <t>-2,21; 7,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 9,04</t>
+          <t>-2,67; 8,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 12,99</t>
+          <t>0,13; 12,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,69; 65,46</t>
+          <t>9,99; 63,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 6,34</t>
+          <t>-1,43; 6,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,29</t>
+          <t>-2,11; 5,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,36; 57,4</t>
+          <t>6,51; 52,61</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 74,04</t>
+          <t>-24,8; 73,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 9,89</t>
+          <t>-56,86; 12,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 80,18</t>
+          <t>-14,08; 79,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 60,79</t>
+          <t>-14,0; 61,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,32; 89,79</t>
+          <t>0,09; 83,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>57,93; 531,08</t>
+          <t>56,25; 445,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 48,78</t>
+          <t>-9,05; 52,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 40,5</t>
+          <t>-13,18; 40,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>40,87; 424,89</t>
+          <t>42,19; 399,25</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 10,59</t>
+          <t>-3,71; 11,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,03</t>
+          <t>-5,83; 7,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9,04; 23,03</t>
+          <t>9,38; 22,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,47; 19,84</t>
+          <t>5,41; 20,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 12,27</t>
+          <t>-1,46; 12,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,13; 30,67</t>
+          <t>18,73; 31,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,11</t>
+          <t>4,3; 14,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,76</t>
+          <t>-1,3; 8,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,29; 26,55</t>
+          <t>17,68; 26,06</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 75,98</t>
+          <t>-20,63; 80,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 59,77</t>
+          <t>-29,18; 54,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>43,51; 178,04</t>
+          <t>42,79; 177,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19,25; 107,57</t>
+          <t>19,89; 106,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 64,88</t>
+          <t>-5,88; 68,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>69,44; 163,08</t>
+          <t>67,53; 169,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>15,51; 79,93</t>
+          <t>18,61; 81,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 49,42</t>
+          <t>-5,57; 49,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>72,93; 152,21</t>
+          <t>76,17; 149,63</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,61; 1,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,74; 0,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,76</t>
+          <t>2,82; 5,77</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,81; 4,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,66; 4,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,92; 27,99</t>
+          <t>8,92; 29,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,93; 2,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,75; 2,41</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,53; 17,34</t>
+          <t>6,48; 18,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-16,27; 44,02</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-20,1; 30,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>73,12; 188,38</t>
+          <t>78,76; 191,5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,02; 71,98</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>21,43; 73,04</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>127,98; 455,81</t>
+          <t>127,37; 449,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>16,33; 54,18</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>13,87; 51,36</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>124,74; 340,71</t>
+          <t>124,87; 367,06</t>
         </is>
       </c>
     </row>
